--- a/考试与周报/周报.xlsx
+++ b/考试与周报/周报.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/star/code练习/java/JAVA-FOUDAMATION/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/star/code练习/java/JAVA-FOUDAMATION/考试与周报/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="100" windowWidth="24960" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5820" yWindow="40" windowWidth="24960" windowHeight="16000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
     <sheet name="第二周" sheetId="2" r:id="rId2"/>
     <sheet name="第三周" sheetId="3" r:id="rId3"/>
+    <sheet name="第四周" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="195">
   <si>
     <t>知识点</t>
     <rPh sb="0" eb="1">
@@ -1497,6 +1498,93 @@
 2、遇到比较难以理解的是集合里面讲解的泛型、不同泛型使用方法如何与之前学习的结合起来使用。泛型和多态感觉是两种完全相反的方向。何时该使用泛型？何时该使用多态？这是我目前最大的疑惑。
 3、周考，本次周考选择判断错了三题。大的编程题思路都是对的，写的也基本没问题，就是使用集合注意要用iterator去进行遍历。自己写的还是使用的数组，导致失分。
 4.thinking in java 感觉太难懂了。暂时放弃。</t>
+  </si>
+  <si>
+    <t>1.Map                2.可变参数              3.Arrays                                     4.Collections
+5.多线程初步</t>
+  </si>
+  <si>
+    <t>巩固及复习</t>
+  </si>
+  <si>
+    <t>1. Map：接口，键值对的形式出现；增加用put  
+2. Map的遍历（重点）：使用keySet、EntrySet、 增强for循环     
+3.HashMap的底层实现：HashMap底层采用一个Entry数组来保存所有的键值对，当需要存储一个Entry对象时，会根据hash算法来决定其在数组中的存储位置，在根据equals方法决定其在该数组位置上的链表中的存储位置。
+4.HashMap与HashTable的区别：HashTable线程更加安全，代价就是因为它粗暴的添加了同步锁，所以会有性能损失。  Hashtable不允许key或者value使用null值，而HashMap可以。
+5.Arrays：简单数据类型转字符串Arrays.toString(arr)。
+6.Collections：封装了一系列静态操作集合的方法</t>
+  </si>
+  <si>
+    <t>1.多线程                             2.线程安全问题
+3.线程通信</t>
+  </si>
+  <si>
+    <t>1.线程创建：继承Thread类，重写run()方法。
+2.任务区创建：实现Runable接口，重写run()方法。
+3.线程安全的原因：线程共用一个数据；共享的语句有多条。
+4.线程安全的解决：使用同步锁，同步代码块，同步函数。注意：锁（对象）1. 对象 2. 共享，唯一性
+5.线程通信：给输入任务和输出任务加上同一把锁后，保证两个任务之间是同步的。设立标识，当flag值为true,就让当前的线程处于wait状态，否则使用tofify唤醒。实现线程的有序执行。</t>
+  </si>
+  <si>
+    <t>1.单例的安全性
+2.生产者消费者
+3.lock锁 
+4.线程状态图</t>
+  </si>
+  <si>
+    <t>1.懒汉式才会有线程安全的问题，解决办法是加入同步锁
+2.线程的调用一定要执行start()，执行run变成普通方法
+3.多生产者多消费者：notifyAll()，唤醒对方线程
+4.lock锁：用于多生产者多消费者，提高notifyAll的效率。使用lock对象，Condition确定线程的名字，实现对线程await和signal精准操作
+5.线程状态：就绪（runnable）、运行（running）、阻塞（blocked）、等待、siwang（dead）</t>
+  </si>
+  <si>
+    <t>1.IO流
+2.字符流
+3.字节流
+4.缓冲流</t>
+  </si>
+  <si>
+    <t>1. 字符流的两个父类:
+---字符读入流(将数据输入内存):Reader
+---字符写出流(将数据从内存取出):Writer
+2. 字节流:
+--- 字节输入流:InputStream
+--- 字节输出流:OutputStream
+3.IO流分类
+字节流: 传输的是字节,可以操作任意类型的数据     ------音频,视频,文件,图片等
+字符流: 传输的是字节,不同点是在传输过程中加入了编码的操作,让我们的操作更方便------文本
+4.读写操作</t>
+  </si>
+  <si>
+    <t>1.标准输入输出流
+2.转换流
+3.更换输入输出源
+4.File
+5.打印流</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.标准输入输出流
+---System.in
+---System.out
+2.转换流
+--- InputStreamReader:输入转换流
+--- OutputStreamWriter:输出转换流
+3.更换输入输出源
+--- System.setIn()
+---System.setOut()
+4.File
+---File的操作
+5.打印流
+--- 字节打印流:  PrintStream, 除了拥有输出流的特点之外,还有打印的功能
+--- 字符打印流:  PrintWriter
+</t>
+  </si>
+  <si>
+    <t>1、本周的重点是Map的使用和遍历、多线程与线程安全、生产者与消费者模式、IO流的写入和输出操作
+2、本周概念性、理解性、记忆性的知识偏多，特别是IO流这一块，各种形式的输入输出好容易就晕了，按字符流和字节流划分开来记可能会好点，感觉需要用脑图工具好好整理一下啊。
+3、周考，本次周考选择了5题？？？？基础性的细节没把握好，判断题都对了，填空题的话错了3道，上课的时候听讲有漏掉。大的编程题思路这次考的是TreeSet并实现自定义的比较，就是使用comparable接口实现comprareTo方法。
+4.读书：《head first in java》 ，感觉适合新手。</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1703,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1655,8 +1743,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1685,6 +1781,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1700,20 +1802,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1721,8 +1817,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1742,6 +1841,10 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1761,6 +1864,10 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2081,16 +2188,16 @@
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2099,314 +2206,314 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="192" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2415,101 +2522,101 @@
       <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2571,7 +2678,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2580,70 +2687,70 @@
       <c r="C2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2652,148 +2759,148 @@
       <c r="C8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2802,144 +2909,144 @@
       <c r="C21" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="15" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="15" t="s">
         <v>116</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="13"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="16" t="s">
         <v>136</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2948,70 +3055,70 @@
       <c r="C34" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
         <v>138</v>
       </c>
@@ -3020,8 +3127,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="19" t="s">
         <v>142</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3029,14 +3136,14 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
         <v>144</v>
       </c>
@@ -3045,7 +3152,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -3053,7 +3160,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="4" t="s">
         <v>147</v>
       </c>
@@ -3062,7 +3169,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="4" t="s">
         <v>149</v>
       </c>
@@ -3071,7 +3178,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="4" t="s">
         <v>152</v>
       </c>
@@ -3080,7 +3187,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="4" t="s">
         <v>153</v>
       </c>
@@ -3089,8 +3196,8 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="16" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17" t="s">
         <v>155</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -3098,14 +3205,14 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="4" t="s">
         <v>159</v>
       </c>
@@ -3114,7 +3221,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="4" t="s">
         <v>161</v>
       </c>
@@ -3123,13 +3230,13 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="16"/>
       <c r="C53" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="4" t="s">
         <v>142</v>
       </c>
@@ -3139,6 +3246,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="D2:D39"/>
     <mergeCell ref="E2:E39"/>
     <mergeCell ref="F2:F39"/>
@@ -3147,19 +3267,6 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3170,49 +3277,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="C1" zoomScale="162" workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="19"/>
-    <col min="2" max="2" width="24.83203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="10.83203125" style="11"/>
+    <col min="2" max="2" width="24.83203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="192" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="11" t="s">
         <v>175</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -3223,39 +3330,39 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="263" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="11" t="s">
         <v>176</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="11" t="s">
         <v>178</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="320" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="11" t="s">
         <v>180</v>
       </c>
       <c r="D5" s="21"/>
@@ -3267,5 +3374,103 @@
     <mergeCell ref="E2:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="320" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="235" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" ht="262" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/考试与周报/周报.xlsx
+++ b/考试与周报/周报.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="40" windowWidth="24960" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
     <sheet name="第二周" sheetId="2" r:id="rId2"/>
-    <sheet name="第三周" sheetId="3" r:id="rId3"/>
-    <sheet name="第四周" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="第三周" sheetId="3" r:id="rId4"/>
+    <sheet name="第四周" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -747,313 +748,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>fang neng shi zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习java的第一周，因为之前有过js编程语言的基础，学习起来不算太难。                       2. 周五考试有点捉急，犯了很多很简单的错误，比如ASCII码的实现字母的输出、return结束方法、重载的基本概念等等。              3.发现有些东西可能只是表面理解了并没有去注意深入理解内部的实现原理，下个星期应该多注意java基础，多理解、多思考。     4. 感觉自己的学习状态还没怎么调整好，上课可以听懂，时间效率的利用方面并没有很好。解决办法是每天早上先列出今天大概要做的事情，做好任务管理。      5. 除了上课内容的消化外，自己阅读java经典书籍，希望能更好的理解java</t>
-    <rPh sb="2" eb="3">
-      <t>xue xi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>di yi zhou</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yin wei</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>zhi qian</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>you guo</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>bian cheng yu yan</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>de</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ji chu</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>xue xi</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>qi lai</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>bu suan</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>tai nan</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>zhou m</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>wu</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>kao shi</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>you d</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>zhuo ji</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>fan le</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>hen duo</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>hen jian dan</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>de</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>cuo wu</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>bi ru</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ma</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>de</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>shi xian</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>zi mu</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>de</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>shu chu</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>jie shu</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>fang fa</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>chong zai</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>de</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ji ben</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>gai nian</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>deng deng</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>fa xian hen d</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>you xie</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>dong xi</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>ke neng zhi shi</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>biao m</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>li jie</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>le</t>
-    </rPh>
-    <rPh sb="153" eb="154">
-      <t>bing mei you</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>qu zhu yi</t>
-    </rPh>
-    <rPh sb="159" eb="160">
-      <t>shen ru</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>li jie</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>nei bu</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>de</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>shi xian yuan li</t>
-    </rPh>
-    <rPh sb="171" eb="172">
-      <t>xia ge xiang qi</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>xing qi</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>ying g</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>duo zhu yi</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>ji chu</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>duo li jie</t>
-    </rPh>
-    <rPh sb="191" eb="192">
-      <t>duo si kao</t>
-    </rPh>
-    <rPh sb="203" eb="204">
-      <t>gan jue</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>zi ji de</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>xue xi</t>
-    </rPh>
-    <rPh sb="210" eb="211">
-      <t>zhuang tai</t>
-    </rPh>
-    <rPh sb="212" eb="213">
-      <t>hai</t>
-    </rPh>
-    <rPh sb="213" eb="214">
-      <t>mei zne m</t>
-    </rPh>
-    <rPh sb="216" eb="217">
-      <t>tiao zheng hao</t>
-    </rPh>
-    <rPh sb="220" eb="221">
-      <t>shang ke</t>
-    </rPh>
-    <rPh sb="222" eb="223">
-      <t>ke yi</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>ting dong</t>
-    </rPh>
-    <rPh sb="227" eb="228">
-      <t>shi jian</t>
-    </rPh>
-    <rPh sb="229" eb="230">
-      <t>xiao lü de</t>
-    </rPh>
-    <rPh sb="232" eb="233">
-      <t>li yong fang m</t>
-    </rPh>
-    <rPh sb="236" eb="237">
-      <t>bing mei you</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>hen hao</t>
-    </rPh>
-    <rPh sb="242" eb="243">
-      <t>jie jue</t>
-    </rPh>
-    <rPh sb="244" eb="245">
-      <t>ban fa</t>
-    </rPh>
-    <rPh sb="246" eb="247">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>mei t</t>
-    </rPh>
-    <rPh sb="249" eb="250">
-      <t>zao s</t>
-    </rPh>
-    <rPh sb="251" eb="252">
-      <t>xian</t>
-    </rPh>
-    <rPh sb="252" eb="253">
-      <t>lie chu</t>
-    </rPh>
-    <rPh sb="254" eb="255">
-      <t>jin t</t>
-    </rPh>
-    <rPh sb="256" eb="257">
-      <t>da gai</t>
-    </rPh>
-    <rPh sb="258" eb="259">
-      <t>yao zuo de</t>
-    </rPh>
-    <rPh sb="261" eb="262">
-      <t>shi q</t>
-    </rPh>
-    <rPh sb="264" eb="265">
-      <t>zuo hao</t>
-    </rPh>
-    <rPh sb="266" eb="267">
-      <t>ren wu guan li</t>
-    </rPh>
-    <rPh sb="280" eb="281">
-      <t>chu e</t>
-    </rPh>
-    <rPh sb="281" eb="282">
-      <t>le</t>
-    </rPh>
-    <rPh sb="282" eb="283">
-      <t>shang ke</t>
-    </rPh>
-    <rPh sb="284" eb="285">
-      <t>nei rong de</t>
-    </rPh>
-    <rPh sb="287" eb="288">
-      <t>xiao hua</t>
-    </rPh>
-    <rPh sb="289" eb="290">
-      <t>wai</t>
-    </rPh>
-    <rPh sb="291" eb="292">
-      <t>zi ji</t>
-    </rPh>
-    <rPh sb="293" eb="294">
-      <t>yue du</t>
-    </rPh>
-    <rPh sb="299" eb="300">
-      <t>jing dian</t>
-    </rPh>
-    <rPh sb="301" eb="302">
-      <t>shu ji</t>
-    </rPh>
-    <rPh sb="304" eb="305">
-      <t>xi w</t>
-    </rPh>
-    <rPh sb="306" eb="307">
-      <t>neng</t>
-    </rPh>
-    <rPh sb="307" eb="308">
-      <t>geng hao</t>
-    </rPh>
-    <rPh sb="309" eb="310">
-      <t>de</t>
-    </rPh>
-    <rPh sb="310" eb="311">
-      <t>li jie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1412,9 +1106,6 @@
     <t>困难与建议</t>
   </si>
   <si>
-    <t>1.学习java的第二周，难度比上一周增加挺多。                       2.周五考试选择题错了很多，很多小细节没有理解到位，编程题基本都写出来了，可因为一些小地方除了错误，只得了一半的分。              3.这个星期的主要重点在学java的三大特性，封装、继承、多态。难点在于最后一天讲得匿名内部类。                                    4.上个星期说的任务管理这个星期并没没有建立起来，都在在忙着做作业，写每天的笔记。                                                 5. 继续看书《thinking in java》</t>
-  </si>
-  <si>
     <t>星期</t>
   </si>
   <si>
@@ -1585,6 +1276,14 @@
 2、本周概念性、理解性、记忆性的知识偏多，特别是IO流这一块，各种形式的输入输出好容易就晕了，按字符流和字节流划分开来记可能会好点，感觉需要用脑图工具好好整理一下啊。
 3、周考，本次周考选择了5题？？？？基础性的细节没把握好，判断题都对了，填空题的话错了3道，上课的时候听讲有漏掉。大的编程题思路这次考的是TreeSet并实现自定义的比较，就是使用comparable接口实现comprareTo方法。
 4.读书：《head first in java》 ，感觉适合新手。</t>
+  </si>
+  <si>
+    <t>1.学习java的第一周，因为之前有过js编程语言的基础，学习起来不算太难。                       2. 周五考试有点捉急，犯了很多很简单的错误，比如ASCII码的实现字母的输出、return结束方法、重载的基本概念等等。              3.发现有些东西可能只是表面理解了并没有去注意深入理解内部的实现原理，下个星期应该多注意java基础，多理解、多思考。     4. 感觉自己的学习状态还没怎么调整好，上课可以听懂，时间效率的利用方面并没有很好。解决办法是每天早上先列出今天大概要做的事情，做好任务管理。      5. 除了上课内容的消化外，自己阅读java经典书籍，希望能更好的理解java</t>
+  </si>
+  <si>
+    <t>1.学习java的第二周，难度比上一周增加挺多。                       2.周五考试选择题错了很多，很多小细节没有理解到位，编程题基本都写出来了，可因为一些小地方除了错误，只得了一半的分。              3.这个星期的主要重点在学java的三大特性，封装、继承、多态。难点在于最后一天讲得匿名内部类。
+4.上个星期说的任务管理这个星期并没没有建立起来，都在在忙着做作业，写每天的笔记。                                  
+5. 继续看书《thinking in java》</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1402,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1787,6 +1488,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1817,11 +1521,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1845,6 +1546,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1868,6 +1570,7 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2145,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView zoomScale="88" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2188,16 +1891,16 @@
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2206,314 +1909,314 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="192" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2522,101 +2225,101 @@
       <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="15"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="15"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="15"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="15"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="15"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="15"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="15"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="15"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2644,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2668,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2678,574 +2381,587 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="9" t="s">
+      <c r="C32" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+      <c r="C34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="4" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17"/>
+      <c r="C53" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="B54" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D2:D39"/>
+    <mergeCell ref="E2:E39"/>
+    <mergeCell ref="F2:F39"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A44:A54"/>
     <mergeCell ref="C32:C33"/>
@@ -3254,19 +2970,6 @@
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D2:D39"/>
-    <mergeCell ref="E2:E39"/>
-    <mergeCell ref="F2:F39"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3275,10 +2978,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="162" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3294,79 +3009,79 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>181</v>
+      <c r="D2" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="263" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+        <v>176</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="320" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+        <v>178</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3378,11 +3093,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="108" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="108" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
@@ -3394,77 +3109,77 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="320" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>194</v>
+      <c r="D2" s="21" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="21"/>
+        <v>185</v>
+      </c>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" ht="235" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>187</v>
+      </c>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="262" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="21"/>
+        <v>189</v>
+      </c>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>193</v>
+        <v>144</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/考试与周报/周报.xlsx
+++ b/考试与周报/周报.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3980" yWindow="460" windowWidth="24960" windowHeight="15540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
     <sheet name="第二周" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="第三周" sheetId="3" r:id="rId4"/>
-    <sheet name="第四周" sheetId="5" r:id="rId5"/>
+    <sheet name="第三周" sheetId="3" r:id="rId3"/>
+    <sheet name="第四周" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="206">
   <si>
     <t>知识点</t>
     <rPh sb="0" eb="1">
@@ -1284,6 +1284,90 @@
     <t>1.学习java的第二周，难度比上一周增加挺多。                       2.周五考试选择题错了很多，很多小细节没有理解到位，编程题基本都写出来了，可因为一些小地方除了错误，只得了一半的分。              3.这个星期的主要重点在学java的三大特性，封装、继承、多态。难点在于最后一天讲得匿名内部类。
 4.上个星期说的任务管理这个星期并没没有建立起来，都在在忙着做作业，写每天的笔记。                                  
 5. 继续看书《thinking in java》</t>
+  </si>
+  <si>
+    <t>1.Properties                2.其他流        
+3.网络通信</t>
+  </si>
+  <si>
+    <t>1.properties基础：类似map，是键值对的格式出现，通过setProperties、stringPropetiesnames、getPropertie、irerator进行存储、遍历访问
+2.获取系统属性：System.getProperties()   
+3.实际应用：通过该load、store对属性值进行读写，存储操作。
+4.序列化与逆序列化：在web开发中，如果对象被保存在了Session中，tomcat在重启时要把Session对象序列化到硬盘，这个对象就必须实现Serializable接口。如果对象要经过分布式系统进行网络传输或通过rmi等远程调用，这就需要在网络上传输对象，被传输的对象就必须实现Serializable接口。
+5.序列化与逆序列化操作：ObjectOutputStream、writeObject；ObjectInputStream、readObject。
+6.网络通信：三大要素、七层协议、InetAddress（getLocalHost获取本机地址）、URL</t>
+  </si>
+  <si>
+    <t>1.UDP                             2.TCP
+3.正则表达式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.UDP：
+客户端：
+-创建对象DatagramSocket
+-创建DatagramPacket对象封装数据
+-通过socket send发送packet包。
+服务器端：
+-创建对象DatagramSocket绑定端口号，
+创建空数组,准备接收传来的数据，创建包对象DatgramPacket，通过socketrecieve接受packet包，
+-获取数据datagramPacket.getData。
+2.TCP：
+-创建客户端工作的对象--Socket对象并绑定端口和主机
+-准备数据
+-调用socket内部的输出流向网络写数据
+-客户端接收服务器的数据
+-创建服务器端的工作对象--ServerSocket对象并设置端口
+-接收从客户端传过来的socket对象----是让服务器端处于监听状态的方法
+-卸货--调用socket对象的输入流
+3.正则表达式：compile、matcher、find、group获取数据。
+</t>
+  </si>
+  <si>
+    <t>1.反射</t>
+  </si>
+  <si>
+    <t>1.反射的定义：动态获取类的字节码文件，并对成员进行抽象。通过字节码文件直接创建对象
+2.过程
+1.获取字节码文件对象     
+2.通过字节码文件对象获取对应的实例对象  
+3.给属性赋值(通过从属性中提取出来的类—Field)
+4.调用方法(通过从方法中提取出来的类—Method)
+3.跳过new创建对象</t>
+  </si>
+  <si>
+    <t>1.动态代理
+2.线程池</t>
+  </si>
+  <si>
+    <t>1. 应用场景:
+提供了动态代理的实现方式，可以在运行时刻动态生成代理类。这种代理方式的一大好处是可以方便对代理类的函数做统一或特殊处理，如记录所有函数执行时间、所有函数执行前添加验证判断、对某个特殊函数进行特殊操作，而不用像静态代理方式那样需要修改每个函数。
+2. InvocationHandler接口中invoke()方法的三个参数：
+* Object proxy：代表动态代理对象
+* Method method：代表正在执行的方法
+* Object[] args：代表调用目标方法时传入的实参
+3.线程池
+* 线程池的原理
+* 几种线程池的创建方法
+* 线程池的优化</t>
+  </si>
+  <si>
+    <t>1. 数据库MYSQL</t>
+  </si>
+  <si>
+    <t>1.MySQL
+---卸载
+---安装
+2.DML语法
+---create tabel name
+---insert into tablename values（）
+---update tablename set xx where xx
+---delete from tablename where xx</t>
+  </si>
+  <si>
+    <t>1、本周的重点是Properties、序列化、socket通信、难点是反射和动态代理
+2、本周的内容相比之前更难理解，特别是发射和动态代理这块，有点让人摸不着头脑。
+3、阶段考，本次周考选择错了3题？判断错了2道？我发现选择题老是理解错意思。编程题思路基本没问题，就是有些方法没记住，比如TCP通信、和序列化的方法。阶段考综的来说考的还可以，可惜选择填空判断跟之前一样总是犯很低级的错误，不然应该能上个90～java基础阶段学习算是结束了，基础知识掌握的估计60%，还是有很多没搞懂的，很多原理性的东西，比如Arraylist的源码阅读，hashmap的源码实现、虚拟机JVM、多线程等
+4.读书：《head first in java》 ，暂时没时间阅读完了。开始看Haddop的书了。</t>
   </si>
 </sst>
 </file>
@@ -1402,8 +1486,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1522,7 +1620,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1547,6 +1645,13 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1571,6 +1676,13 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2949,6 +3061,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="D2:D39"/>
     <mergeCell ref="E2:E39"/>
     <mergeCell ref="F2:F39"/>
@@ -2957,19 +3082,6 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2977,18 +3089,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -3093,12 +3193,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3121,7 +3221,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="320" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="361" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>73</v>
       </c>
@@ -3180,6 +3280,105 @@
       </c>
       <c r="C6" s="12" t="s">
         <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="217" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="77.83203125" customWidth="1"/>
+    <col min="4" max="4" width="72.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="287" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="368" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="253" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
